--- a/runs/run403/NotionalETEOutput403.xlsx
+++ b/runs/run403/NotionalETEOutput403.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER1_State_Update</t>
+    <t>Missile_HELLMASKER1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1_118.MISSILE_BRAVER1_118</t>
+    <t>MISSILE_HELLMASKER1_401.MISSILE_HELLMASKER1_401</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1</t>
+    <t>MISSILE_HELLMASKER1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1494.068741901808</v>
+        <v>-1481.736039689046</v>
       </c>
       <c r="J2">
-        <v>1961.62250310794</v>
+        <v>1980.170722070784</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1401.002228856305</v>
+        <v>-1434.049820213478</v>
       </c>
       <c r="J3">
-        <v>1918.298551852366</v>
+        <v>1941.799329800781</v>
       </c>
       <c r="K3">
-        <v>318.7689492050127</v>
+        <v>299.6262626683881</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1406.558197306533</v>
+        <v>-1468.979697636248</v>
       </c>
       <c r="J4">
-        <v>1990.032674394621</v>
+        <v>1937.587405605138</v>
       </c>
       <c r="K4">
-        <v>619.8791410461681</v>
+        <v>607.3817521683766</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1447.893578326806</v>
+        <v>-1407.848414143329</v>
       </c>
       <c r="J5">
-        <v>1889.890867056554</v>
+        <v>1845.858886854665</v>
       </c>
       <c r="K5">
-        <v>827.9753687026929</v>
+        <v>823.4563828393864</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1323.375367039638</v>
+        <v>-1391.080360142234</v>
       </c>
       <c r="J6">
-        <v>1864.43152208533</v>
+        <v>1805.760352347952</v>
       </c>
       <c r="K6">
-        <v>1092.703712743075</v>
+        <v>1093.078770797682</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1374.647251738808</v>
+        <v>-1345.355356179283</v>
       </c>
       <c r="J7">
-        <v>1672.176478945878</v>
+        <v>1728.851702204196</v>
       </c>
       <c r="K7">
-        <v>1307.347436036117</v>
+        <v>1337.067515798546</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1298.236675173157</v>
+        <v>-1254.984755728278</v>
       </c>
       <c r="J8">
-        <v>1680.065694140377</v>
+        <v>1752.655933373789</v>
       </c>
       <c r="K8">
-        <v>1593.061253876299</v>
+        <v>1591.939164069441</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.69043126988855</v>
+        <v>-102.5901327299058</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1328.595112174792</v>
+        <v>-1337.617501118186</v>
       </c>
       <c r="J9">
-        <v>1734.974295055243</v>
+        <v>1696.395195589134</v>
       </c>
       <c r="K9">
-        <v>1774.335868019838</v>
+        <v>1803.396298789366</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>217.4179664619116</v>
+        <v>215.7223231785265</v>
       </c>
       <c r="G10">
-        <v>-80.23697653378505</v>
+        <v>-86.29938093803061</v>
       </c>
       <c r="H10">
-        <v>820.4388725576139</v>
+        <v>840.3994001960692</v>
       </c>
       <c r="I10">
-        <v>-1205.824320078151</v>
+        <v>-1216.650156975221</v>
       </c>
       <c r="J10">
-        <v>1641.547748502179</v>
+        <v>1659.975435836812</v>
       </c>
       <c r="K10">
-        <v>1981.115491624172</v>
+        <v>1960.98325846025</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>168.2307603919097</v>
+        <v>169.1239258787547</v>
       </c>
       <c r="G11">
-        <v>-66.07699845962615</v>
+        <v>-66.18348780927002</v>
       </c>
       <c r="H11">
-        <v>1034.668785272702</v>
+        <v>1018.280376232482</v>
       </c>
       <c r="I11">
-        <v>-1196.057468959896</v>
+        <v>-1214.019917865272</v>
       </c>
       <c r="J11">
-        <v>1534.918858799125</v>
+        <v>1636.98704830922</v>
       </c>
       <c r="K11">
-        <v>2216.035254571852</v>
+        <v>2171.600853744171</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>145.1613353733414</v>
+        <v>137.8086146579336</v>
       </c>
       <c r="G12">
-        <v>-50.95639853016861</v>
+        <v>-49.17665266263669</v>
       </c>
       <c r="H12">
-        <v>1217.521528334535</v>
+        <v>1147.87709806131</v>
       </c>
       <c r="I12">
-        <v>-1142.266479360025</v>
+        <v>-1190.585624758257</v>
       </c>
       <c r="J12">
-        <v>1495.053759353264</v>
+        <v>1499.809263733268</v>
       </c>
       <c r="K12">
-        <v>2385.316451899867</v>
+        <v>2398.442318268776</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>122.4060930910245</v>
+        <v>120.2337407872184</v>
       </c>
       <c r="G13">
-        <v>-33.29764940391082</v>
+        <v>-33.55786178933511</v>
       </c>
       <c r="H13">
-        <v>1294.984898036304</v>
+        <v>1277.284858942833</v>
       </c>
       <c r="I13">
-        <v>-1080.648444877344</v>
+        <v>-1151.401882030284</v>
       </c>
       <c r="J13">
-        <v>1465.987334886986</v>
+        <v>1526.880218004921</v>
       </c>
       <c r="K13">
-        <v>2435.688760784921</v>
+        <v>2616.310463217579</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.5965023412455</v>
+        <v>108.3081533180874</v>
       </c>
       <c r="G14">
-        <v>-17.61491188562082</v>
+        <v>-16.70218433938316</v>
       </c>
       <c r="H14">
-        <v>1342.239748818256</v>
+        <v>1375.810937898467</v>
       </c>
       <c r="I14">
-        <v>-1139.077165454981</v>
+        <v>-1105.685432417861</v>
       </c>
       <c r="J14">
-        <v>1486.828456683357</v>
+        <v>1387.63817552045</v>
       </c>
       <c r="K14">
-        <v>2688.378842100502</v>
+        <v>2553.907988932879</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>101.4206463214944</v>
+        <v>96.61551418942408</v>
       </c>
       <c r="G15">
-        <v>-0.9319211316202957</v>
+        <v>-0.934276171852476</v>
       </c>
       <c r="H15">
-        <v>1425.635703074789</v>
+        <v>1392.418323895329</v>
       </c>
       <c r="I15">
-        <v>-1046.589710471002</v>
+        <v>-1058.872150766972</v>
       </c>
       <c r="J15">
-        <v>1318.292246729818</v>
+        <v>1429.698680771423</v>
       </c>
       <c r="K15">
-        <v>2822.238404206125</v>
+        <v>2831.265340995002</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.89462591810738</v>
+        <v>91.14958406522653</v>
       </c>
       <c r="G16">
-        <v>15.4444916632073</v>
+        <v>15.86223835535734</v>
       </c>
       <c r="H16">
-        <v>1478.377880404741</v>
+        <v>1446.345303629047</v>
       </c>
       <c r="I16">
-        <v>-1026.266401598707</v>
+        <v>-1000.572662907806</v>
       </c>
       <c r="J16">
-        <v>1292.857757597603</v>
+        <v>1261.044033426365</v>
       </c>
       <c r="K16">
-        <v>2991.094099900673</v>
+        <v>2780.920571855121</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.58627725952063</v>
+        <v>89.85298717127445</v>
       </c>
       <c r="G17">
-        <v>31.32527673482639</v>
+        <v>33.27321420463435</v>
       </c>
       <c r="H17">
-        <v>1533.956813301493</v>
+        <v>1405.637156856933</v>
       </c>
       <c r="I17">
-        <v>-934.8723540734634</v>
+        <v>-966.7334474908296</v>
       </c>
       <c r="J17">
-        <v>1309.677805238943</v>
+        <v>1253.326910715305</v>
       </c>
       <c r="K17">
-        <v>3022.599580538862</v>
+        <v>2976.142465162866</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.38941394302478</v>
+        <v>83.35519974250474</v>
       </c>
       <c r="G18">
-        <v>49.35642168995302</v>
+        <v>49.7151317147442</v>
       </c>
       <c r="H18">
-        <v>1489.112822604851</v>
+        <v>1465.641400523409</v>
       </c>
       <c r="I18">
-        <v>-934.1654895186491</v>
+        <v>-887.8738902772193</v>
       </c>
       <c r="J18">
-        <v>1248.519960131049</v>
+        <v>1269.579658784309</v>
       </c>
       <c r="K18">
-        <v>3089.13548195485</v>
+        <v>3012.483728779652</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.40036333572029</v>
+        <v>78.10778828219358</v>
       </c>
       <c r="G19">
-        <v>63.13277355462183</v>
+        <v>64.75227417129868</v>
       </c>
       <c r="H19">
-        <v>1546.994297124467</v>
+        <v>1494.219411233873</v>
       </c>
       <c r="I19">
-        <v>-915.5863800073801</v>
+        <v>-924.9119580455596</v>
       </c>
       <c r="J19">
-        <v>1184.430152751181</v>
+        <v>1177.111422147846</v>
       </c>
       <c r="K19">
-        <v>3084.507636092199</v>
+        <v>2986.87353761529</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.05498709769209</v>
+        <v>74.49479486943737</v>
       </c>
       <c r="G20">
-        <v>79.4856947893125</v>
+        <v>82.29624022967191</v>
       </c>
       <c r="H20">
-        <v>1538.266365046814</v>
+        <v>1498.583870867582</v>
       </c>
       <c r="I20">
-        <v>-803.1919245921687</v>
+        <v>-862.4052313240527</v>
       </c>
       <c r="J20">
-        <v>1085.950715329468</v>
+        <v>1081.739219186136</v>
       </c>
       <c r="K20">
-        <v>3105.925122236784</v>
+        <v>3158.180276241966</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.80711235257144</v>
+        <v>69.18880222933734</v>
       </c>
       <c r="G21">
-        <v>101.976473621157</v>
+        <v>98.77698472188989</v>
       </c>
       <c r="H21">
-        <v>1532.203899610008</v>
+        <v>1512.932793638815</v>
       </c>
       <c r="I21">
-        <v>-758.8631767774732</v>
+        <v>-812.3130196921298</v>
       </c>
       <c r="J21">
-        <v>1086.320839250314</v>
+        <v>1121.578598947083</v>
       </c>
       <c r="K21">
-        <v>3186.543121095854</v>
+        <v>3295.274230272569</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.51278792836057</v>
+        <v>67.81225402566058</v>
       </c>
       <c r="G22">
-        <v>112.4047438254055</v>
+        <v>119.2964715807277</v>
       </c>
       <c r="H22">
-        <v>1634.895060467057</v>
+        <v>1551.255468763647</v>
       </c>
       <c r="I22">
-        <v>-745.4943336853755</v>
+        <v>-761.7342031393069</v>
       </c>
       <c r="J22">
-        <v>1003.444550882971</v>
+        <v>1059.704257192009</v>
       </c>
       <c r="K22">
-        <v>3290.864185581078</v>
+        <v>3264.980991003724</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.96927192133238</v>
+        <v>66.12052984998355</v>
       </c>
       <c r="G23">
-        <v>137.3482572842187</v>
+        <v>130.2787271219224</v>
       </c>
       <c r="H23">
-        <v>1675.543818024028</v>
+        <v>1661.73633371777</v>
       </c>
       <c r="I23">
-        <v>-678.8239712329341</v>
+        <v>-685.5024746237895</v>
       </c>
       <c r="J23">
-        <v>940.7085635195488</v>
+        <v>990.3266607730521</v>
       </c>
       <c r="K23">
-        <v>3071.388976313433</v>
+        <v>3089.746572222944</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.70637243636129</v>
+        <v>65.94815817717458</v>
       </c>
       <c r="G24">
-        <v>154.7548669551562</v>
+        <v>151.6190760237752</v>
       </c>
       <c r="H24">
-        <v>1606.297238720581</v>
+        <v>1644.877103094002</v>
       </c>
       <c r="I24">
-        <v>-655.1137879272608</v>
+        <v>-659.8094717703256</v>
       </c>
       <c r="J24">
-        <v>968.919089150961</v>
+        <v>900.3789793320626</v>
       </c>
       <c r="K24">
-        <v>3034.902378245069</v>
+        <v>3064.517962534294</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.26203401593412</v>
+        <v>59.399018097764</v>
       </c>
       <c r="G25">
-        <v>162.9801541206885</v>
+        <v>162.5981673508975</v>
       </c>
       <c r="H25">
-        <v>1651.906368794291</v>
+        <v>1643.755417045077</v>
       </c>
       <c r="I25">
-        <v>-622.0155783598539</v>
+        <v>-594.4674578455915</v>
       </c>
       <c r="J25">
-        <v>908.7442948927154</v>
+        <v>851.2904643681894</v>
       </c>
       <c r="K25">
-        <v>3263.012251402336</v>
+        <v>3122.200309644444</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.55418539969654</v>
+        <v>57.45562076022858</v>
       </c>
       <c r="G26">
-        <v>178.840743104203</v>
+        <v>174.673180651966</v>
       </c>
       <c r="H26">
-        <v>1636.917285731767</v>
+        <v>1643.130654352788</v>
       </c>
       <c r="I26">
-        <v>-519.7238667318597</v>
+        <v>-555.3122775990058</v>
       </c>
       <c r="J26">
-        <v>852.6252592179125</v>
+        <v>834.1094615946263</v>
       </c>
       <c r="K26">
-        <v>3163.306426860733</v>
+        <v>3029.901886227929</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.58554236546154</v>
+        <v>59.08668511873124</v>
       </c>
       <c r="G27">
-        <v>197.1574714885093</v>
+        <v>191.8573054469965</v>
       </c>
       <c r="H27">
-        <v>1735.386225221469</v>
+        <v>1717.95367359551</v>
       </c>
       <c r="I27">
-        <v>-492.1771542353338</v>
+        <v>-479.6155310665124</v>
       </c>
       <c r="J27">
-        <v>791.2264874873433</v>
+        <v>765.2661701559474</v>
       </c>
       <c r="K27">
-        <v>3043.056680236701</v>
+        <v>3144.164638069557</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.49444384618839</v>
+        <v>55.94182867287324</v>
       </c>
       <c r="G28">
-        <v>216.924749290477</v>
+        <v>212.6061079055867</v>
       </c>
       <c r="H28">
-        <v>1670.840878516307</v>
+        <v>1688.077851121487</v>
       </c>
       <c r="I28">
-        <v>-433.0410404122099</v>
+        <v>-443.9707928132795</v>
       </c>
       <c r="J28">
-        <v>707.1778158249223</v>
+        <v>764.2296539280928</v>
       </c>
       <c r="K28">
-        <v>2936.215090746429</v>
+        <v>3081.529420104187</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.27820348302853</v>
+        <v>55.73952728539399</v>
       </c>
       <c r="G29">
-        <v>236.5593897457398</v>
+        <v>235.4844776212216</v>
       </c>
       <c r="H29">
-        <v>1704.454632729617</v>
+        <v>1827.814970795658</v>
       </c>
       <c r="I29">
-        <v>-394.2348670548774</v>
+        <v>-399.001109497868</v>
       </c>
       <c r="J29">
-        <v>710.9550860134375</v>
+        <v>655.3987180629312</v>
       </c>
       <c r="K29">
-        <v>2793.11478781651</v>
+        <v>2798.322033709887</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.12856031774952</v>
+        <v>51.30744813469308</v>
       </c>
       <c r="G30">
-        <v>258.1487140693628</v>
+        <v>250.7793052195525</v>
       </c>
       <c r="H30">
-        <v>1780.520049693851</v>
+        <v>1817.605709788973</v>
       </c>
       <c r="I30">
-        <v>-328.9410189143285</v>
+        <v>-314.2714965177269</v>
       </c>
       <c r="J30">
-        <v>658.6775962680449</v>
+        <v>656.9953592271189</v>
       </c>
       <c r="K30">
-        <v>2852.025490882594</v>
+        <v>2713.408000293704</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.90387927536207</v>
+        <v>50.24541143329786</v>
       </c>
       <c r="G31">
-        <v>268.3980121655044</v>
+        <v>265.7080465218099</v>
       </c>
       <c r="H31">
-        <v>1840.808233962394</v>
+        <v>1700.566714061541</v>
       </c>
       <c r="I31">
-        <v>-262.2661567590588</v>
+        <v>-256.2276370236625</v>
       </c>
       <c r="J31">
-        <v>607.849284070456</v>
+        <v>603.7591780763152</v>
       </c>
       <c r="K31">
-        <v>2664.904199109657</v>
+        <v>2682.518073549398</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.03193567014084</v>
+        <v>52.46182486992893</v>
       </c>
       <c r="G32">
-        <v>286.8394202381884</v>
+        <v>286.5946451539912</v>
       </c>
       <c r="H32">
-        <v>1721.50127955825</v>
+        <v>1717.05555802152</v>
       </c>
       <c r="I32">
-        <v>-213.4976587018101</v>
+        <v>-207.5565883951036</v>
       </c>
       <c r="J32">
-        <v>554.4834460303986</v>
+        <v>535.1432368193188</v>
       </c>
       <c r="K32">
-        <v>2451.360585352262</v>
+        <v>2409.327136484937</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.41951595813835</v>
+        <v>48.95368460824666</v>
       </c>
       <c r="G33">
-        <v>295.1551123061062</v>
+        <v>286.9728473094652</v>
       </c>
       <c r="H33">
-        <v>1850.859778887657</v>
+        <v>1744.536745916185</v>
       </c>
       <c r="I33">
-        <v>-142.4479453667396</v>
+        <v>-151.2427485685242</v>
       </c>
       <c r="J33">
-        <v>479.516569657398</v>
+        <v>510.5048941103162</v>
       </c>
       <c r="K33">
-        <v>2274.063801913236</v>
+        <v>2365.605176462644</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.694479603083</v>
+        <v>47.35093650497625</v>
       </c>
       <c r="G34">
-        <v>305.5859541967171</v>
+        <v>318.2827868806424</v>
       </c>
       <c r="H34">
-        <v>1892.019318558486</v>
+        <v>1754.983136590329</v>
       </c>
       <c r="I34">
-        <v>-86.28043939760049</v>
+        <v>-83.54433630817402</v>
       </c>
       <c r="J34">
-        <v>421.3501579514522</v>
+        <v>462.7964301179271</v>
       </c>
       <c r="K34">
-        <v>2187.05595955571</v>
+        <v>2119.911801730831</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.63948221899943</v>
+        <v>46.06743251329307</v>
       </c>
       <c r="G35">
-        <v>334.5319769923253</v>
+        <v>342.6619881193927</v>
       </c>
       <c r="H35">
-        <v>1775.792791790909</v>
+        <v>1798.66783323441</v>
       </c>
       <c r="I35">
-        <v>-18.56689500017717</v>
+        <v>-17.97699516971835</v>
       </c>
       <c r="J35">
-        <v>390.0382779551637</v>
+        <v>403.5705044488255</v>
       </c>
       <c r="K35">
-        <v>2051.404355605336</v>
+        <v>1995.522749748437</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.33995895263501</v>
+        <v>45.76800681023698</v>
       </c>
       <c r="G36">
-        <v>354.3997460742999</v>
+        <v>348.753690622137</v>
       </c>
       <c r="H36">
-        <v>1891.251746244121</v>
+        <v>1788.978060490361</v>
       </c>
       <c r="I36">
-        <v>47.09992740140761</v>
+        <v>48.18084028016547</v>
       </c>
       <c r="J36">
-        <v>350.5553848954627</v>
+        <v>355.6571039173012</v>
       </c>
       <c r="K36">
-        <v>1842.725797912871</v>
+        <v>1904.798011191565</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.75409668625103</v>
+        <v>45.85588107918978</v>
       </c>
       <c r="G37">
-        <v>350.4525294625077</v>
+        <v>365.6261860962298</v>
       </c>
       <c r="H37">
-        <v>1865.823271394925</v>
+        <v>1842.859295854554</v>
       </c>
       <c r="I37">
-        <v>117.0221081594532</v>
+        <v>116.5887367587101</v>
       </c>
       <c r="J37">
-        <v>302.0493813354156</v>
+        <v>285.752801759326</v>
       </c>
       <c r="K37">
-        <v>1571.040600189454</v>
+        <v>1642.738802023209</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.30235967341075</v>
+        <v>43.65741640801057</v>
       </c>
       <c r="G38">
-        <v>392.5919254388211</v>
+        <v>362.8386860311497</v>
       </c>
       <c r="H38">
-        <v>1941.613653257082</v>
+        <v>1790.808865493048</v>
       </c>
       <c r="I38">
-        <v>193.0648825394393</v>
+        <v>188.6275069453038</v>
       </c>
       <c r="J38">
-        <v>257.4307717284988</v>
+        <v>237.5489813523049</v>
       </c>
       <c r="K38">
-        <v>1427.054118576305</v>
+        <v>1361.671042351813</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.75923908144605</v>
+        <v>43.86204739211569</v>
       </c>
       <c r="G39">
-        <v>406.7640499068352</v>
+        <v>393.4738654349178</v>
       </c>
       <c r="H39">
-        <v>1816.278703275522</v>
+        <v>1839.412720879051</v>
       </c>
       <c r="I39">
-        <v>255.7931690305057</v>
+        <v>265.7020586290745</v>
       </c>
       <c r="J39">
-        <v>208.0427486576473</v>
+        <v>190.5217603291223</v>
       </c>
       <c r="K39">
-        <v>1124.983443730554</v>
+        <v>1156.015776062989</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.26953105084231</v>
+        <v>44.7622486978064</v>
       </c>
       <c r="G40">
-        <v>426.6900494399709</v>
+        <v>405.7942670450396</v>
       </c>
       <c r="H40">
-        <v>1941.332369321781</v>
+        <v>1815.329567115363</v>
       </c>
       <c r="I40">
-        <v>339.7433181920434</v>
+        <v>325.8146726609228</v>
       </c>
       <c r="J40">
-        <v>154.5760433896287</v>
+        <v>147.3308438922519</v>
       </c>
       <c r="K40">
-        <v>934.3699441267139</v>
+        <v>864.1697904002522</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.75661898503893</v>
+        <v>43.18998316907127</v>
       </c>
       <c r="G41">
-        <v>416.0751804380598</v>
+        <v>448.67942928924</v>
       </c>
       <c r="H41">
-        <v>1831.89893390772</v>
+        <v>1962.373970624716</v>
       </c>
       <c r="I41">
-        <v>412.8532553980832</v>
+        <v>402.3548377757882</v>
       </c>
       <c r="J41">
-        <v>107.5682709574072</v>
+        <v>99.61524860929198</v>
       </c>
       <c r="K41">
-        <v>615.5466977854293</v>
+        <v>597.412663600988</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.8493550563554</v>
+        <v>43.98068574135719</v>
       </c>
       <c r="G42">
-        <v>438.7023339681407</v>
+        <v>454.3023596680917</v>
       </c>
       <c r="H42">
-        <v>1813.746438655419</v>
+        <v>1815.901240989541</v>
       </c>
       <c r="I42">
-        <v>463.0817149074414</v>
+        <v>487.9617274632399</v>
       </c>
       <c r="J42">
-        <v>52.9686987742063</v>
+        <v>54.69940498569477</v>
       </c>
       <c r="K42">
-        <v>334.1465317501907</v>
+        <v>325.7032485610073</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.6414600749641</v>
+        <v>43.79865824857826</v>
       </c>
       <c r="G43">
-        <v>458.3094335445788</v>
+        <v>449.9297342096532</v>
       </c>
       <c r="H43">
-        <v>1841.603737399514</v>
+        <v>1866.212291660982</v>
       </c>
       <c r="I43">
-        <v>540.262030064484</v>
+        <v>583.8308261116359</v>
       </c>
       <c r="J43">
-        <v>5.350173789465827</v>
+        <v>5.03620545955052</v>
       </c>
       <c r="K43">
-        <v>33.75229819991956</v>
+        <v>35.04183816684427</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.25660561143238</v>
+        <v>40.48723472597714</v>
       </c>
       <c r="G44">
-        <v>485.6785722390033</v>
+        <v>486.4831332842207</v>
       </c>
       <c r="H44">
-        <v>1923.638077579191</v>
+        <v>1991.594018665893</v>
       </c>
       <c r="I44">
-        <v>606.9725511238765</v>
+        <v>622.5346814088762</v>
       </c>
       <c r="J44">
-        <v>-41.47571213675715</v>
+        <v>-45.15581970695369</v>
       </c>
       <c r="K44">
-        <v>-286.1154252875952</v>
+        <v>-290.5727869293705</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.21869268721422</v>
+        <v>40.72631553433665</v>
       </c>
       <c r="G45">
-        <v>513.5244959963123</v>
+        <v>511.7049996511956</v>
       </c>
       <c r="H45">
-        <v>1911.66277223191</v>
+        <v>1880.381505830033</v>
       </c>
       <c r="I45">
-        <v>701.4684911344657</v>
+        <v>736.1366255716879</v>
       </c>
       <c r="J45">
-        <v>-94.70813195392759</v>
+        <v>-90.88892684619741</v>
       </c>
       <c r="K45">
-        <v>-596.6127372324547</v>
+        <v>-634.0465726748831</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.78273493760676</v>
+        <v>39.52553249601704</v>
       </c>
       <c r="G46">
-        <v>485.4644886650225</v>
+        <v>517.5500609859174</v>
       </c>
       <c r="H46">
-        <v>1937.93994837849</v>
+        <v>1948.261643166061</v>
       </c>
       <c r="I46">
-        <v>821.0487590432371</v>
+        <v>768.8572004595286</v>
       </c>
       <c r="J46">
-        <v>-136.9049138763736</v>
+        <v>-146.0180537116239</v>
       </c>
       <c r="K46">
-        <v>-944.0454594820815</v>
+        <v>-976.8026254991614</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>37.97862934886856</v>
+        <v>40.1788085913089</v>
       </c>
       <c r="G47">
-        <v>503.5778689164832</v>
+        <v>506.3222018885626</v>
       </c>
       <c r="H47">
-        <v>1887.562908848968</v>
+        <v>1936.537709353521</v>
       </c>
       <c r="I47">
-        <v>902.7308257812562</v>
+        <v>930.4840092784648</v>
       </c>
       <c r="J47">
-        <v>-180.7001632753309</v>
+        <v>-180.2172747387801</v>
       </c>
       <c r="K47">
-        <v>-1335.606623612815</v>
+        <v>-1353.766414149453</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.97581034280744</v>
+        <v>40.77764405511763</v>
       </c>
       <c r="G48">
-        <v>560.253012759934</v>
+        <v>542.6439997220863</v>
       </c>
       <c r="H48">
-        <v>1989.56387692853</v>
+        <v>1843.850668526693</v>
       </c>
       <c r="I48">
-        <v>934.0452876590771</v>
+        <v>1025.949184497217</v>
       </c>
       <c r="J48">
-        <v>-232.0515871078413</v>
+        <v>-246.2163999590066</v>
       </c>
       <c r="K48">
-        <v>-1694.842289511491</v>
+        <v>-1736.949756122493</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.69895139061617</v>
+        <v>39.92198323722684</v>
       </c>
       <c r="G49">
-        <v>564.8434819183999</v>
+        <v>587.3670689772375</v>
       </c>
       <c r="H49">
-        <v>1884.238203396079</v>
+        <v>1959.026030870405</v>
       </c>
       <c r="I49">
-        <v>1078.065561271309</v>
+        <v>1029.689749702896</v>
       </c>
       <c r="J49">
-        <v>-300.3922170174577</v>
+        <v>-291.4165642171306</v>
       </c>
       <c r="K49">
-        <v>-2104.287394646728</v>
+        <v>-2171.116367588479</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.21499473154532</v>
+        <v>36.75498102642127</v>
       </c>
       <c r="G50">
-        <v>603.426896776639</v>
+        <v>600.3790661485604</v>
       </c>
       <c r="H50">
-        <v>1923.482571820205</v>
+        <v>1944.660718353697</v>
       </c>
       <c r="I50">
-        <v>1198.819187806484</v>
+        <v>1220.178707891278</v>
       </c>
       <c r="J50">
-        <v>-330.3849381032417</v>
+        <v>-323.3714721125245</v>
       </c>
       <c r="K50">
-        <v>-2574.186034567774</v>
+        <v>-2541.607783420417</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.6725321178815</v>
+        <v>38.62021866377052</v>
       </c>
       <c r="G51">
-        <v>597.9111080844265</v>
+        <v>586.8827115863235</v>
       </c>
       <c r="H51">
-        <v>1926.330465752766</v>
+        <v>1865.225534059775</v>
       </c>
       <c r="I51">
-        <v>1259.393642481952</v>
+        <v>1281.226632778403</v>
       </c>
       <c r="J51">
-        <v>-365.2161749722695</v>
+        <v>-391.1119463773516</v>
       </c>
       <c r="K51">
-        <v>-2805.431606035208</v>
+        <v>-3005.09987471719</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.23590168951363</v>
+        <v>36.64279084707324</v>
       </c>
       <c r="G52">
-        <v>634.5321335438259</v>
+        <v>608.1242664078057</v>
       </c>
       <c r="H52">
-        <v>1943.168922081553</v>
+        <v>1929.784391367867</v>
       </c>
       <c r="I52">
-        <v>1332.365313906521</v>
+        <v>1386.595493395783</v>
       </c>
       <c r="J52">
-        <v>-448.5228035850232</v>
+        <v>-415.8564234432211</v>
       </c>
       <c r="K52">
-        <v>-3462.939078371883</v>
+        <v>-3223.214800413806</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.37895200769266</v>
+        <v>36.65873869982769</v>
       </c>
       <c r="G53">
-        <v>615.8557927955843</v>
+        <v>600.8861328045926</v>
       </c>
       <c r="H53">
-        <v>1995.292929294789</v>
+        <v>1918.384157696897</v>
       </c>
       <c r="I53">
-        <v>1394.814110559728</v>
+        <v>1425.937070166044</v>
       </c>
       <c r="J53">
-        <v>-468.8995236290294</v>
+        <v>-476.7866558132839</v>
       </c>
       <c r="K53">
-        <v>-3954.959645210795</v>
+        <v>-3850.50177535115</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.25300710213916</v>
+        <v>38.2530443644234</v>
       </c>
       <c r="G54">
-        <v>641.9247302094039</v>
+        <v>631.9868038328235</v>
       </c>
       <c r="H54">
-        <v>1887.41631657907</v>
+        <v>2019.607658822034</v>
       </c>
       <c r="I54">
-        <v>1513.519702032538</v>
+        <v>1611.577832694322</v>
       </c>
       <c r="J54">
-        <v>-552.7807302597441</v>
+        <v>-519.5999988642291</v>
       </c>
       <c r="K54">
-        <v>-4351.304531564238</v>
+        <v>-4135.811021867123</v>
       </c>
     </row>
   </sheetData>
